--- a/双峰共振策略打分表.xlsx
+++ b/双峰共振策略打分表.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="算法描述" sheetId="1" r:id="rId1"/>
+    <sheet name="实现" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>MACD波段数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,13 +70,6 @@
   </si>
   <si>
     <t>均线空间（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均线空间得分的计算：
-1）MA5(60)-MA10(60)/close
- &gt; 2%得3分
-&gt;  1%得2分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,37 +115,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除愿意是：波段多说明不了形态就好，波段多是充分非必要条件。波段个数需要共振才具有意义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>只计算60分钟级别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>均线空间得分的计算：
+1）MA5(60)-MA10(60)/close
+ &gt; 2%得5分
+&gt;  1%得3分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除原因是：波段多说明不了形态就好，波段多是充分非必要条件。波段个数需要共振才具有意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各周期MACD共振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各周期WMA共振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各周期背离共振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振的定义：大周期两波，小周期也发生至少2波。
+如果大周期一波，小周期多波，谈不上共振。凡是提到共振必须至少2波。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 波段分计算：
-1波得1分
+60分上）
+1波得2分
 2波得3分
-3波以及以上得5分</t>
-    </r>
+3波以及以上得5分
+30分上）
+1波1分
+2波2分
+3波及以上3分
+15分上）
+1波0分
+2波1分
+3波及以上2分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各周期MACD波段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各周期WMA波段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各周期WMA距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均线距离分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波段分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后得分=共振分+波段分+均线距离分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振计算：共振设置为1，否则为0，最后根据打分表计算总得分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +276,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -272,43 +321,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -628,12 +722,12 @@
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
@@ -641,8 +735,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,251 +750,652 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="11" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="12"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F10:H19"/>
+    <mergeCell ref="B29:E43"/>
     <mergeCell ref="F29:G37"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B10:E19"/>
     <mergeCell ref="B21:E27"/>
-    <mergeCell ref="B29:E37"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+      <c r="G8" s="18">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="J8" s="1">
+        <v>60</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="10"/>
+      <c r="N8" s="1">
+        <v>60</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D9" s="1">
+        <v>60</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="10"/>
+      <c r="J9" s="1">
+        <v>30</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="10"/>
+      <c r="N9" s="1">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D10" s="1">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="10"/>
+      <c r="J10" s="1">
+        <v>15</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="10"/>
+      <c r="N10" s="1">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="H12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="H13" s="10"/>
+      <c r="J13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="10"/>
+      <c r="J14" s="1">
+        <v>60</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+      <c r="G15" s="18">
+        <v>15</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="J15" s="1">
+        <v>30</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D16" s="1">
+        <v>60</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="10"/>
+      <c r="J16" s="1">
+        <v>15</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D17" s="1">
+        <v>30</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30</v>
+      </c>
+      <c r="G22" s="18">
+        <v>15</v>
+      </c>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D23" s="1">
+        <v>60</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D24" s="1">
+        <v>30</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D25" s="1">
+        <v>15</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="L7:L16"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="D29:P31"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H7:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/双峰共振策略打分表.xlsx
+++ b/双峰共振策略打分表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>MACD波段数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,19 +122,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除原因是：波段多说明不了形态就好，波段多是充分非必要条件。波段个数需要共振才具有意义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各周期MACD共振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各周期WMA共振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各周期背离共振</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,14 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各周期MACD波段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各周期WMA波段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各周期WMA距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,11 +164,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后得分=共振分+波段分+均线距离分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共振计算：共振设置为1，否则为0，最后根据打分表计算总得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMA背离还要继续研究，怎么定义WMA背离（时间、空间、空间/时间？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各周期MACD背离共振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后得分=共振分+波段分+均线距离分+背离分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD背离分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各周期MACD波段数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各周期WMA波段数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单周期MACD背离次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar长度和价格共同决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时只计算波段数目共振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>函数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bar_wave_cnt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>函数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bottom_divergence_cnt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>函数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ma_distance</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,23 +308,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -289,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -345,11 +391,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -359,15 +451,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -377,31 +475,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -710,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,10 +822,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
@@ -807,260 +905,239 @@
       <c r="E8" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="7"/>
+      <c r="B29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="7"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="F10:H19"/>
     <mergeCell ref="B29:E43"/>
-    <mergeCell ref="F29:G37"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B10:E19"/>
     <mergeCell ref="B21:E27"/>
@@ -1073,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:P31"/>
+  <dimension ref="A2:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1086,55 +1163,87 @@
     <col min="15" max="15" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="13" t="s">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="J4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="N4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="J7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>60</v>
@@ -1142,96 +1251,112 @@
       <c r="F8" s="1">
         <v>30</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="8">
         <v>15</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="24"/>
       <c r="J8" s="1">
         <v>60</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="14"/>
       <c r="N8" s="1">
         <v>60</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="1">
         <v>60</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="24"/>
       <c r="J9" s="1">
         <v>30</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="10"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="14"/>
       <c r="N9" s="1">
         <v>30</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="1">
         <v>30</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="10"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="24"/>
       <c r="J10" s="1">
         <v>15</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="14"/>
       <c r="N10" s="1">
         <v>15</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="1">
         <v>15</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="H12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="H13" s="10"/>
-      <c r="J13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="10"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="24"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H12" s="24"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H13" s="24"/>
+      <c r="J13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="24"/>
       <c r="J14" s="1">
         <v>60</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="K14" s="8"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>60</v>
@@ -1239,152 +1364,155 @@
       <c r="F15" s="1">
         <v>30</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="8">
         <v>15</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="24"/>
       <c r="J15" s="1">
         <v>30</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="K15" s="8"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1">
         <v>60</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="24"/>
       <c r="J16" s="1">
         <v>15</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="K16" s="8"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="1">
         <v>30</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="25"/>
+      <c r="J18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J21" s="1">
         <v>60</v>
       </c>
-      <c r="F22" s="1">
+      <c r="K21" s="8"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J22" s="1">
         <v>30</v>
       </c>
-      <c r="G22" s="18">
+      <c r="K22" s="8"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J23" s="1">
         <v>15</v>
       </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D23" s="1">
-        <v>60</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D24" s="1">
-        <v>30</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D25" s="1">
-        <v>15</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-    </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D29" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="J4:L6"/>
+    <mergeCell ref="J18:L19"/>
+    <mergeCell ref="N4:P6"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="H7:H18"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B7:C11"/>
     <mergeCell ref="L7:L16"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:P10"/>
@@ -1392,10 +1520,8 @@
     <mergeCell ref="D2:H4"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D21:G21"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H7:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/双峰共振策略打分表.xlsx
+++ b/双峰共振策略打分表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>MACD波段数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>ma_distance</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>函数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resonace_cnt</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -437,11 +454,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,6 +498,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,25 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1153,7 +1182,7 @@
   <dimension ref="A2:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H7" sqref="H7:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1164,27 +1193,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="J4" s="14" t="s">
         <v>33</v>
       </c>
@@ -1197,6 +1226,13 @@
       <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -1205,6 +1241,11 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1213,37 +1254,37 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="23" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>60</v>
@@ -1254,7 +1295,7 @@
       <c r="G8" s="8">
         <v>15</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="19"/>
       <c r="J8" s="1">
         <v>60</v>
       </c>
@@ -1267,15 +1308,15 @@
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="1">
         <v>60</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="19"/>
       <c r="J9" s="1">
         <v>30</v>
       </c>
@@ -1288,15 +1329,15 @@
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1">
         <v>30</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="19"/>
       <c r="J10" s="1">
         <v>15</v>
       </c>
@@ -1309,44 +1350,44 @@
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1">
         <v>15</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="19"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H12" s="24"/>
+      <c r="H12" s="19"/>
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H13" s="24"/>
-      <c r="J13" s="19" t="s">
+      <c r="H13" s="19"/>
+      <c r="J13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="24"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="19"/>
       <c r="J14" s="1">
         <v>60</v>
       </c>
@@ -1354,9 +1395,9 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>60</v>
@@ -1367,7 +1408,7 @@
       <c r="G15" s="8">
         <v>15</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="19"/>
       <c r="J15" s="1">
         <v>30</v>
       </c>
@@ -1375,16 +1416,16 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1">
         <v>60</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="19"/>
       <c r="J16" s="1">
         <v>15</v>
       </c>
@@ -1392,28 +1433,28 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="1">
         <v>30</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1">
         <v>15</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="20"/>
       <c r="J18" s="14" t="s">
         <v>34</v>
       </c>
@@ -1426,10 +1467,10 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="15" t="s">
         <v>27</v>
       </c>
@@ -1456,72 +1497,73 @@
       <c r="L23" s="15"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="D29:P31"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D5:H6"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B7:C11"/>
+    <mergeCell ref="L7:L16"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="J4:L6"/>
     <mergeCell ref="J18:L19"/>
     <mergeCell ref="N4:P6"/>
     <mergeCell ref="B14:C18"/>
     <mergeCell ref="H7:H18"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B7:C11"/>
-    <mergeCell ref="L7:L16"/>
-    <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:P10"/>
-    <mergeCell ref="D29:P31"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/双峰共振策略打分表.xlsx
+++ b/双峰共振策略打分表.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="算法描述" sheetId="1" r:id="rId1"/>
     <sheet name="实现" sheetId="2" r:id="rId2"/>
+    <sheet name="模型思路" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>MACD波段数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +270,110 @@
       </rPr>
       <t>resonace_cnt</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在时间轴上一个分数可以看做是时间点周边一定范围向量的一个分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波段数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60macd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30macd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15macd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-30macd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-15macd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-15macd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-30ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-15ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-15ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-ma(5-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-ma(5-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-ma(5-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续背离次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波段共振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背离共振</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,11 +603,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,23 +636,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1193,27 +1301,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="J4" s="14" t="s">
         <v>33</v>
       </c>
@@ -1226,13 +1334,13 @@
       <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -1241,11 +1349,11 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1254,23 +1362,23 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="18" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1283,8 +1391,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>60</v>
@@ -1295,7 +1403,7 @@
       <c r="G8" s="8">
         <v>15</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="25"/>
       <c r="J8" s="1">
         <v>60</v>
       </c>
@@ -1308,15 +1416,15 @@
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="1">
         <v>60</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="25"/>
       <c r="J9" s="1">
         <v>30</v>
       </c>
@@ -1329,15 +1437,15 @@
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="1">
         <v>30</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="25"/>
       <c r="J10" s="1">
         <v>15</v>
       </c>
@@ -1350,44 +1458,44 @@
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="1">
         <v>15</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="25"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H12" s="19"/>
+      <c r="H12" s="25"/>
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H13" s="19"/>
-      <c r="J13" s="21" t="s">
+      <c r="H13" s="25"/>
+      <c r="J13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="25"/>
       <c r="J14" s="1">
         <v>60</v>
       </c>
@@ -1395,9 +1503,9 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>60</v>
@@ -1408,7 +1516,7 @@
       <c r="G15" s="8">
         <v>15</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="25"/>
       <c r="J15" s="1">
         <v>30</v>
       </c>
@@ -1416,16 +1524,16 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1">
         <v>60</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="25"/>
       <c r="J16" s="1">
         <v>15</v>
       </c>
@@ -1433,28 +1541,28 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="1">
         <v>30</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="1">
         <v>15</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="26"/>
       <c r="J18" s="14" t="s">
         <v>34</v>
       </c>
@@ -1467,10 +1575,10 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="15" t="s">
         <v>27</v>
       </c>
@@ -1497,63 +1605,54 @@
       <c r="L23" s="15"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D29:P31"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D5:H6"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:L23"/>
     <mergeCell ref="B7:C11"/>
     <mergeCell ref="L7:L16"/>
     <mergeCell ref="N7:O7"/>
@@ -1564,6 +1663,265 @@
     <mergeCell ref="B14:C18"/>
     <mergeCell ref="H7:H18"/>
     <mergeCell ref="P7:P10"/>
+    <mergeCell ref="D29:P31"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D5:H6"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:L23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="27"/>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="27"/>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="27"/>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="27"/>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="27"/>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="20"/>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="20"/>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="20"/>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="20"/>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="20"/>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="20"/>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="20"/>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="20"/>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="27"/>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="27"/>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A1:J6"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B24:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
